--- a/Financial Modelling Prep Library/Company Financial Data/EOG/annual/income_statements.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/EOG/annual/income_statements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="162">
   <si>
     <t>date</t>
   </si>
@@ -136,30 +136,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>EOG-FY-1994</t>
-  </si>
-  <si>
-    <t>EOG-FY-1995</t>
-  </si>
-  <si>
-    <t>EOG-FY-1996</t>
-  </si>
-  <si>
-    <t>EOG-FY-1997</t>
-  </si>
-  <si>
-    <t>EOG-FY-1998</t>
-  </si>
-  <si>
-    <t>EOG-FY-1999</t>
-  </si>
-  <si>
-    <t>EOG-FY-2000</t>
-  </si>
-  <si>
-    <t>EOG-FY-2001</t>
-  </si>
-  <si>
     <t>EOG-FY-2002</t>
   </si>
   <si>
@@ -229,30 +205,6 @@
     <t>0000821189</t>
   </si>
   <si>
-    <t>1994-12-31</t>
-  </si>
-  <si>
-    <t>1995-12-31</t>
-  </si>
-  <si>
-    <t>1996-12-31</t>
-  </si>
-  <si>
-    <t>1997-12-31</t>
-  </si>
-  <si>
-    <t>1998-12-31</t>
-  </si>
-  <si>
-    <t>2000-03-08</t>
-  </si>
-  <si>
-    <t>2001-03-23</t>
-  </si>
-  <si>
-    <t>2001-12-31</t>
-  </si>
-  <si>
     <t>2002-12-31</t>
   </si>
   <si>
@@ -313,30 +265,6 @@
     <t>2022-02-24</t>
   </si>
   <si>
-    <t>1994-12-30 19:00:00</t>
-  </si>
-  <si>
-    <t>1995-12-30 19:00:00</t>
-  </si>
-  <si>
-    <t>1996-12-30 19:00:00</t>
-  </si>
-  <si>
-    <t>1997-12-30 19:00:00</t>
-  </si>
-  <si>
-    <t>1998-12-30 19:00:00</t>
-  </si>
-  <si>
-    <t>2000-03-08 00:00:00</t>
-  </si>
-  <si>
-    <t>2001-03-23 00:00:00</t>
-  </si>
-  <si>
-    <t>2002-03-20 00:00:00</t>
-  </si>
-  <si>
     <t>2003-03-13 16:50:47</t>
   </si>
   <si>
@@ -397,30 +325,6 @@
     <t>2022-02-24 16:51:16</t>
   </si>
   <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
     <t>2002</t>
   </si>
   <si>
@@ -484,12 +388,6 @@
     <t>FY</t>
   </si>
   <si>
-    <t>https://www.sec.gov/Archives/edgar/data/821189/0000950129-00-001017-index.html</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/821189/000082118901500007/0000821189-01-500007-index.htm</t>
-  </si>
-  <si>
     <t>https://www.sec.gov/Archives/edgar/data/821189/000082118904000070/0000821189-04-000070-index.htm</t>
   </si>
   <si>
@@ -545,12 +443,6 @@
   </si>
   <si>
     <t>https://www.sec.gov/Archives/edgar/data/821189/000082118922000017/0000821189-22-000017-index.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/821189/000095012900001017/</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/821189/000082118901500007/form10k2000.txt</t>
   </si>
   <si>
     <t>https://www.sec.gov/Archives/edgar/data/821189/000082118904000070/eog10-k03.txt</t>
@@ -982,7 +874,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1115,61 +1007,61 @@
         <v>40</v>
       </c>
       <c r="B2" s="2">
-        <v>34699</v>
+        <v>37621</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J2">
-        <v>620200000</v>
+        <v>1095036000</v>
       </c>
       <c r="K2">
-        <v>144300000</v>
+        <v>354836000</v>
       </c>
       <c r="L2">
-        <v>475900000</v>
+        <v>740200000</v>
       </c>
       <c r="M2">
-        <v>0.7673331183489197</v>
+        <v>0.6759595118334009</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>51400000</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>51400000</v>
+        <v>88952000</v>
       </c>
       <c r="R2">
-        <v>270500000</v>
+        <v>469917000</v>
       </c>
       <c r="S2">
-        <v>321900000</v>
+        <v>558869000</v>
       </c>
       <c r="T2">
-        <v>466200000</v>
+        <v>913705000</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1178,52 +1070,52 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>242200000</v>
+        <v>398036000</v>
       </c>
       <c r="X2">
-        <v>396100000</v>
+        <v>517708000</v>
       </c>
       <c r="Y2">
-        <v>0.6386649467913577</v>
+        <v>0.4727771507055476</v>
       </c>
       <c r="Z2">
-        <v>154000000</v>
+        <v>181331000</v>
       </c>
       <c r="AA2">
-        <v>0.2483069977426637</v>
+        <v>0.1655936425834402</v>
       </c>
       <c r="AB2">
-        <v>-100000</v>
+        <v>-61659000</v>
       </c>
       <c r="AC2">
-        <v>153900000</v>
+        <v>119672000</v>
       </c>
       <c r="AD2">
-        <v>0.2481457594324412</v>
+        <v>0.1092859047556427</v>
       </c>
       <c r="AE2">
-        <v>5900000</v>
+        <v>32499000</v>
       </c>
       <c r="AF2">
-        <v>148000000</v>
+        <v>87173000</v>
       </c>
       <c r="AG2">
-        <v>0.2386326991293131</v>
+        <v>0.07960742843157669</v>
       </c>
       <c r="AH2">
-        <v>0.2325</v>
+        <v>0.165</v>
       </c>
       <c r="AI2">
-        <v>0.2325</v>
+        <v>0.1625</v>
       </c>
       <c r="AJ2">
-        <v>639380000</v>
+        <v>461340000</v>
       </c>
       <c r="AK2">
-        <v>639380000</v>
+        <v>468980000</v>
       </c>
       <c r="AN2">
-        <v>636559139.7849462</v>
+        <v>528321212.1212121</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -1231,61 +1123,61 @@
         <v>41</v>
       </c>
       <c r="B3" s="2">
-        <v>35064</v>
+        <v>37986</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J3">
-        <v>648700000</v>
+        <v>1820394000</v>
       </c>
       <c r="K3">
-        <v>148100000</v>
+        <v>330115000</v>
       </c>
       <c r="L3">
-        <v>500600000</v>
+        <v>1490279000</v>
       </c>
       <c r="M3">
-        <v>0.7716972406351164</v>
+        <v>0.8186573895541295</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>56600000</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>56600000</v>
+        <v>100403000</v>
       </c>
       <c r="R3">
-        <v>248600000</v>
+        <v>692562000</v>
       </c>
       <c r="S3">
-        <v>305200000</v>
+        <v>792965000</v>
       </c>
       <c r="T3">
-        <v>453300000</v>
+        <v>1123080000</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1294,52 +1186,58 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>216000000</v>
+        <v>441843000</v>
       </c>
       <c r="X3">
-        <v>400000000</v>
+        <v>1088588000</v>
       </c>
       <c r="Y3">
-        <v>0.616617851086789</v>
+        <v>0.597995818487646</v>
       </c>
       <c r="Z3">
-        <v>195400000</v>
+        <v>697314000</v>
       </c>
       <c r="AA3">
-        <v>0.3012178202558964</v>
+        <v>0.383056634992205</v>
       </c>
       <c r="AB3">
-        <v>-11400000</v>
+        <v>-43438000</v>
       </c>
       <c r="AC3">
-        <v>184000000</v>
+        <v>653876000</v>
       </c>
       <c r="AD3">
-        <v>0.2836442114999229</v>
+        <v>0.3591947677261076</v>
       </c>
       <c r="AE3">
-        <v>41900000</v>
+        <v>216600000</v>
       </c>
       <c r="AF3">
-        <v>142100000</v>
+        <v>430145000</v>
       </c>
       <c r="AG3">
-        <v>0.2190534915985818</v>
+        <v>0.2362922532155127</v>
       </c>
       <c r="AH3">
-        <v>0.2225</v>
+        <v>0.915</v>
       </c>
       <c r="AI3">
-        <v>0.2225</v>
+        <v>0.9</v>
       </c>
       <c r="AJ3">
-        <v>639668000</v>
+        <v>458388000</v>
       </c>
       <c r="AK3">
-        <v>641739130</v>
+        <v>466076000</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="AN3">
-        <v>638651685.3932585</v>
+        <v>470103825.136612</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -1347,61 +1245,61 @@
         <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>35430</v>
+        <v>38352</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J4">
-        <v>730600000</v>
+        <v>2302341000</v>
       </c>
       <c r="K4">
-        <v>166000000</v>
+        <v>457169000</v>
       </c>
       <c r="L4">
-        <v>564600000</v>
+        <v>1845172000</v>
       </c>
       <c r="M4">
-        <v>0.7727894880919792</v>
+        <v>0.8014329762619873</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>56400000</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>56400000</v>
+        <v>115013000</v>
       </c>
       <c r="R4">
-        <v>299400000</v>
+        <v>750964000</v>
       </c>
       <c r="S4">
-        <v>355800000</v>
+        <v>865977000</v>
       </c>
       <c r="T4">
-        <v>521800000</v>
+        <v>1323146000</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -1410,52 +1308,58 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>251300000</v>
+        <v>504403000</v>
       </c>
       <c r="X4">
-        <v>442300000</v>
+        <v>1430415000</v>
       </c>
       <c r="Y4">
-        <v>0.6053928278127566</v>
+        <v>0.6212872028947928</v>
       </c>
       <c r="Z4">
-        <v>208800000</v>
+        <v>979195000</v>
       </c>
       <c r="AA4">
-        <v>0.285792499315631</v>
+        <v>0.4253040709434441</v>
       </c>
       <c r="AB4">
-        <v>-17800000</v>
+        <v>-53183000</v>
       </c>
       <c r="AC4">
-        <v>191000000</v>
+        <v>926012000</v>
       </c>
       <c r="AD4">
-        <v>0.2614289624965782</v>
+        <v>0.4022045387716242</v>
       </c>
       <c r="AE4">
-        <v>51000000</v>
+        <v>301157000</v>
       </c>
       <c r="AF4">
-        <v>140000000</v>
+        <v>624855000</v>
       </c>
       <c r="AG4">
-        <v>0.1916233232959212</v>
+        <v>0.2713998491101014</v>
       </c>
       <c r="AH4">
-        <v>0.22</v>
+        <v>1.3125</v>
       </c>
       <c r="AI4">
-        <v>0.22</v>
+        <v>1.2875</v>
       </c>
       <c r="AJ4">
-        <v>639412000</v>
+        <v>467504000</v>
       </c>
       <c r="AK4">
-        <v>655625000</v>
+        <v>476752000</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="AN4">
-        <v>636363636.3636364</v>
+        <v>476080000</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1463,61 +1367,61 @@
         <v>43</v>
       </c>
       <c r="B5" s="2">
-        <v>35795</v>
+        <v>38717</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J5">
-        <v>783500000</v>
+        <v>3606990000</v>
       </c>
       <c r="K5">
-        <v>198300000</v>
+        <v>571283000</v>
       </c>
       <c r="L5">
-        <v>585200000</v>
+        <v>3035707000</v>
       </c>
       <c r="M5">
-        <v>0.7469049138481174</v>
+        <v>0.8416178032098786</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>54400000</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>54400000</v>
+        <v>125918000</v>
       </c>
       <c r="R5">
-        <v>338100000</v>
+        <v>840042000</v>
       </c>
       <c r="S5">
-        <v>392500000</v>
+        <v>965960000</v>
       </c>
       <c r="T5">
-        <v>590800000</v>
+        <v>1537243000</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1526,52 +1430,58 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>278200000</v>
+        <v>654258000</v>
       </c>
       <c r="X5">
-        <v>441700000</v>
+        <v>2619395000</v>
       </c>
       <c r="Y5">
-        <v>0.5637523931078494</v>
+        <v>0.7261996845014819</v>
       </c>
       <c r="Z5">
-        <v>192700000</v>
+        <v>1991815000</v>
       </c>
       <c r="AA5">
-        <v>0.2459476707083599</v>
+        <v>0.5522097372047053</v>
       </c>
       <c r="AB5">
-        <v>-29200000</v>
+        <v>-26678000</v>
       </c>
       <c r="AC5">
-        <v>163500000</v>
+        <v>1965137000</v>
       </c>
       <c r="AD5">
-        <v>0.2086790044671347</v>
+        <v>0.5448135425936862</v>
       </c>
       <c r="AE5">
-        <v>41500000</v>
+        <v>705561000</v>
       </c>
       <c r="AF5">
-        <v>122000000</v>
+        <v>1259576000</v>
       </c>
       <c r="AG5">
-        <v>0.1557115507338864</v>
+        <v>0.3492041840980984</v>
       </c>
       <c r="AH5">
-        <v>0.195</v>
+        <v>2.62</v>
       </c>
       <c r="AI5">
-        <v>0.1925</v>
+        <v>2.565</v>
       </c>
       <c r="AJ5">
-        <v>629504000</v>
+        <v>477594000</v>
       </c>
       <c r="AK5">
-        <v>632640000</v>
+        <v>487950000</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="AN5">
-        <v>625641025.6410257</v>
+        <v>480754198.4732824</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1579,61 +1489,61 @@
         <v>44</v>
       </c>
       <c r="B6" s="2">
-        <v>36160</v>
+        <v>39082</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J6">
-        <v>769200000</v>
+        <v>3904415000</v>
       </c>
       <c r="K6">
-        <v>219600000</v>
+        <v>717798000</v>
       </c>
       <c r="L6">
-        <v>549600000</v>
+        <v>3186617000</v>
       </c>
       <c r="M6">
-        <v>0.7145085803432137</v>
+        <v>0.816157350076772</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>69000000</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>69000000</v>
+        <v>164981000</v>
       </c>
       <c r="R6">
-        <v>366900000</v>
+        <v>1017952000</v>
       </c>
       <c r="S6">
-        <v>435900000</v>
+        <v>1182933000</v>
       </c>
       <c r="T6">
-        <v>655500000</v>
+        <v>1900731000</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1642,52 +1552,58 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>315100000</v>
+        <v>817089000</v>
       </c>
       <c r="X6">
-        <v>375400000</v>
+        <v>2729730000</v>
       </c>
       <c r="Y6">
-        <v>0.4880395215808632</v>
+        <v>0.6991393076811763</v>
       </c>
       <c r="Z6">
-        <v>113700000</v>
+        <v>1895426000</v>
       </c>
       <c r="AA6">
-        <v>0.1478159126365055</v>
+        <v>0.4854571043293298</v>
       </c>
       <c r="AB6">
-        <v>-53400000</v>
+        <v>17215000</v>
       </c>
       <c r="AC6">
-        <v>60300000</v>
+        <v>1912641000</v>
       </c>
       <c r="AD6">
-        <v>0.07839313572542901</v>
+        <v>0.4898662155534184</v>
       </c>
       <c r="AE6">
-        <v>4100000</v>
+        <v>612756000</v>
       </c>
       <c r="AF6">
-        <v>56200000</v>
+        <v>1299885000</v>
       </c>
       <c r="AG6">
-        <v>0.07306292251690068</v>
+        <v>0.332926955766741</v>
       </c>
       <c r="AH6">
-        <v>0.09</v>
+        <v>2.665</v>
       </c>
       <c r="AI6">
-        <v>0.09</v>
+        <v>2.62</v>
       </c>
       <c r="AJ6">
-        <v>617380000</v>
+        <v>483564000</v>
       </c>
       <c r="AK6">
-        <v>620216000</v>
+        <v>492200000</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="AN6">
-        <v>624444444.4444444</v>
+        <v>487761726.0787992</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1695,61 +1611,61 @@
         <v>45</v>
       </c>
       <c r="B7" s="2">
-        <v>36525</v>
+        <v>39447</v>
       </c>
       <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
         <v>68</v>
       </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
-      </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J7">
-        <v>801400000</v>
+        <v>4038496000</v>
       </c>
       <c r="K7">
-        <v>187800000</v>
+        <v>916050000</v>
       </c>
       <c r="L7">
-        <v>613600000</v>
+        <v>3122446000</v>
       </c>
       <c r="M7">
-        <v>0.7656600948340404</v>
+        <v>0.7731705070402447</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>82900000</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>82900000</v>
+        <v>205210000</v>
       </c>
       <c r="R7">
-        <v>512600000</v>
+        <v>1121323000</v>
       </c>
       <c r="S7">
-        <v>595500000</v>
+        <v>1326533000</v>
       </c>
       <c r="T7">
-        <v>783300000</v>
+        <v>2242583000</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -1758,58 +1674,58 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>459900000</v>
+        <v>1065545000</v>
       </c>
       <c r="X7">
-        <v>1027600000</v>
+        <v>2696413000</v>
       </c>
       <c r="Y7">
-        <v>1.282256051909159</v>
+        <v>0.6676775215327686</v>
       </c>
       <c r="Z7">
-        <v>18100000</v>
+        <v>1648396000</v>
       </c>
       <c r="AA7">
-        <v>0.02258547541801847</v>
+        <v>0.4081707645618567</v>
       </c>
       <c r="AB7">
-        <v>549600000</v>
+        <v>-17528000</v>
       </c>
       <c r="AC7">
-        <v>567700000</v>
+        <v>1630868000</v>
       </c>
       <c r="AD7">
-        <v>0.7083853256800599</v>
+        <v>0.4038305349318162</v>
       </c>
       <c r="AE7">
-        <v>-1400000</v>
+        <v>540950000</v>
       </c>
       <c r="AF7">
-        <v>569100000</v>
+        <v>1089918000</v>
       </c>
       <c r="AG7">
-        <v>0.7101322685300724</v>
+        <v>0.2698821541484751</v>
       </c>
       <c r="AH7">
-        <v>1.01</v>
+        <v>2.225</v>
       </c>
       <c r="AI7">
-        <v>0.9975000000000001</v>
+        <v>2.185</v>
       </c>
       <c r="AJ7">
-        <v>563476000</v>
+        <v>486938000</v>
       </c>
       <c r="AK7">
-        <v>569408000</v>
+        <v>495274000</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="AN7">
-        <v>563465346.5346534</v>
+        <v>489850786.5168539</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1817,61 +1733,61 @@
         <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>36891</v>
+        <v>39813</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
         <v>69</v>
       </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>77</v>
-      </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J8">
-        <v>1489895000</v>
+        <v>6386519000</v>
       </c>
       <c r="K8">
-        <v>225448000</v>
+        <v>1275720000</v>
       </c>
       <c r="L8">
-        <v>1264447000</v>
+        <v>5110799000</v>
       </c>
       <c r="M8">
-        <v>0.8486819540974364</v>
+        <v>0.8002479911200452</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>102649000</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>102649000</v>
+        <v>243708000</v>
       </c>
       <c r="R8">
-        <v>464935000</v>
+        <v>907047000</v>
       </c>
       <c r="S8">
-        <v>567584000</v>
+        <v>1150755000</v>
       </c>
       <c r="T8">
-        <v>793032000</v>
+        <v>2426475000</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1880,58 +1796,58 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>370026000</v>
+        <v>1326875000</v>
       </c>
       <c r="X8">
-        <v>1003583000</v>
+        <v>5073414000</v>
       </c>
       <c r="Y8">
-        <v>0.6735931055544183</v>
+        <v>0.7943942545226906</v>
       </c>
       <c r="Z8">
-        <v>696863000</v>
+        <v>3767185000</v>
       </c>
       <c r="AA8">
-        <v>0.4677262491652096</v>
+        <v>0.5898651518926038</v>
       </c>
       <c r="AB8">
-        <v>-63306000</v>
+        <v>-20646000</v>
       </c>
       <c r="AC8">
-        <v>633557000</v>
+        <v>3746539000</v>
       </c>
       <c r="AD8">
-        <v>0.4252360065642209</v>
+        <v>0.5866324049141637</v>
       </c>
       <c r="AE8">
-        <v>236626000</v>
+        <v>1309620000</v>
       </c>
       <c r="AF8">
-        <v>396931000</v>
+        <v>2436919000</v>
       </c>
       <c r="AG8">
-        <v>0.2664154185362056</v>
+        <v>0.3815723401120391</v>
       </c>
       <c r="AH8">
-        <v>0.825</v>
+        <v>4.94</v>
       </c>
       <c r="AI8">
-        <v>0.8100000000000001</v>
+        <v>4.86</v>
       </c>
       <c r="AJ8">
-        <v>467736000</v>
+        <v>493324000</v>
       </c>
       <c r="AK8">
-        <v>476408000</v>
+        <v>501084000</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="AN8">
-        <v>481128484.8484849</v>
+        <v>493303441.2955465</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1939,115 +1855,121 @@
         <v>47</v>
       </c>
       <c r="B9" s="2">
-        <v>37256</v>
+        <v>40178</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
         <v>70</v>
       </c>
-      <c r="F9" t="s">
-        <v>78</v>
-      </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J9">
-        <v>1654887000</v>
+        <v>4786959000</v>
       </c>
       <c r="K9">
-        <v>393429000</v>
+        <v>1141086000</v>
       </c>
       <c r="L9">
-        <v>1261458000</v>
+        <v>3645873000</v>
       </c>
       <c r="M9">
-        <v>0.7622623176083926</v>
+        <v>0.7616261179592305</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>79963000</v>
+        <v>248274000</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>397375000</v>
       </c>
       <c r="Q9">
-        <v>79963000</v>
+        <v>645649000</v>
       </c>
       <c r="R9">
-        <v>487732000</v>
+        <v>1723551000</v>
       </c>
       <c r="S9">
-        <v>567695000</v>
+        <v>2369200000</v>
       </c>
       <c r="T9">
-        <v>961124000</v>
+        <v>3510286000</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>100901000</v>
       </c>
       <c r="W9">
-        <v>392399000</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1023844000</v>
+        <v>972912000</v>
       </c>
       <c r="Y9">
-        <v>0.6186791001439977</v>
+        <v>0.2032421836075889</v>
       </c>
       <c r="Z9">
-        <v>674552000</v>
+        <v>970841000</v>
       </c>
       <c r="AA9">
-        <v>0.4076121209484394</v>
+        <v>0.2028095498624492</v>
       </c>
       <c r="AB9">
-        <v>-43107000</v>
+        <v>-98830000</v>
       </c>
       <c r="AC9">
-        <v>631445000</v>
+        <v>872011000</v>
       </c>
       <c r="AD9">
-        <v>0.3815638167439831</v>
+        <v>0.1821638748107097</v>
       </c>
       <c r="AE9">
-        <v>232829000</v>
+        <v>325384000</v>
       </c>
       <c r="AF9">
-        <v>398616000</v>
+        <v>546627000</v>
       </c>
       <c r="AG9">
-        <v>0.2408720353715994</v>
+        <v>0.11419086731263</v>
       </c>
       <c r="AH9">
-        <v>0.8375</v>
+        <v>1.1</v>
       </c>
       <c r="AI9">
-        <v>0.825</v>
+        <v>1.085</v>
       </c>
       <c r="AJ9">
-        <v>463060000</v>
+        <v>498000000</v>
       </c>
       <c r="AK9">
-        <v>469952000</v>
+        <v>503800000</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="AN9">
-        <v>475959402.9850746</v>
+        <v>496933636.3636363</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -2055,115 +1977,121 @@
         <v>48</v>
       </c>
       <c r="B10" s="2">
-        <v>37621</v>
+        <v>40543</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J10">
-        <v>1095036000</v>
+        <v>6099896000</v>
       </c>
       <c r="K10">
-        <v>354836000</v>
+        <v>1410244000</v>
       </c>
       <c r="L10">
-        <v>740200000</v>
+        <v>4689652000</v>
       </c>
       <c r="M10">
-        <v>0.6759595118334009</v>
+        <v>0.7688085173911162</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>280474000</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>884212000</v>
       </c>
       <c r="Q10">
-        <v>88952000</v>
+        <v>1164686000</v>
       </c>
       <c r="R10">
-        <v>469917000</v>
+        <v>2259000000</v>
       </c>
       <c r="S10">
-        <v>558869000</v>
+        <v>3423686000</v>
       </c>
       <c r="T10">
-        <v>913705000</v>
+        <v>4833930000</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>129586000</v>
       </c>
       <c r="W10">
-        <v>398036000</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>517708000</v>
+        <v>537562000</v>
       </c>
       <c r="Y10">
-        <v>0.4727771507055476</v>
+        <v>0.08812642051602192</v>
       </c>
       <c r="Z10">
-        <v>181331000</v>
+        <v>523319000</v>
       </c>
       <c r="AA10">
-        <v>0.1655936425834402</v>
+        <v>0.08579146267411772</v>
       </c>
       <c r="AB10">
-        <v>-61659000</v>
+        <v>-115343000</v>
       </c>
       <c r="AC10">
-        <v>119672000</v>
+        <v>407976000</v>
       </c>
       <c r="AD10">
-        <v>0.1092859047556427</v>
+        <v>0.06688245176639077</v>
       </c>
       <c r="AE10">
-        <v>32499000</v>
+        <v>247322000</v>
       </c>
       <c r="AF10">
-        <v>87173000</v>
+        <v>160654000</v>
       </c>
       <c r="AG10">
-        <v>0.07960742843157669</v>
+        <v>0.02633717033864184</v>
       </c>
       <c r="AH10">
-        <v>0.165</v>
+        <v>0.32</v>
       </c>
       <c r="AI10">
-        <v>0.1625</v>
+        <v>0.315</v>
       </c>
       <c r="AJ10">
-        <v>461340000</v>
+        <v>501800000</v>
       </c>
       <c r="AK10">
-        <v>468980000</v>
+        <v>509000000</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="AN10">
-        <v>528321212.1212121</v>
+        <v>502043750</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -2171,121 +2099,121 @@
         <v>49</v>
       </c>
       <c r="B11" s="2">
-        <v>37986</v>
+        <v>40907</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J11">
-        <v>1820394000</v>
+        <v>10126115000</v>
       </c>
       <c r="K11">
-        <v>330115000</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1490279000</v>
+        <v>10126115000</v>
       </c>
       <c r="M11">
-        <v>0.8186573895541295</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>171658000</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>-1810981000</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2115792000</v>
       </c>
       <c r="Q11">
-        <v>100403000</v>
+        <v>304811000</v>
       </c>
       <c r="R11">
-        <v>692562000</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>792965000</v>
+        <v>476469000</v>
       </c>
       <c r="T11">
-        <v>1123080000</v>
+        <v>8012806000</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>210363000</v>
       </c>
       <c r="W11">
-        <v>441843000</v>
+        <v>2516381000</v>
       </c>
       <c r="X11">
-        <v>1088588000</v>
+        <v>4636543000</v>
       </c>
       <c r="Y11">
-        <v>0.597995818487646</v>
+        <v>0.4578797495386928</v>
       </c>
       <c r="Z11">
-        <v>697314000</v>
+        <v>2113309000</v>
       </c>
       <c r="AA11">
-        <v>0.383056634992205</v>
+        <v>0.2086988938995854</v>
       </c>
       <c r="AB11">
-        <v>-43438000</v>
+        <v>42838000</v>
       </c>
       <c r="AC11">
-        <v>653876000</v>
+        <v>2156147000</v>
       </c>
       <c r="AD11">
-        <v>0.3591947677261076</v>
+        <v>0.2129293416083068</v>
       </c>
       <c r="AE11">
-        <v>216600000</v>
+        <v>818676000</v>
       </c>
       <c r="AF11">
-        <v>430145000</v>
+        <v>1091123000</v>
       </c>
       <c r="AG11">
-        <v>0.2362922532155127</v>
+        <v>0.1077533683944929</v>
       </c>
       <c r="AH11">
-        <v>0.915</v>
+        <v>2.075</v>
       </c>
       <c r="AI11">
-        <v>0.9</v>
+        <v>2.05</v>
       </c>
       <c r="AJ11">
-        <v>458388000</v>
+        <v>525400000</v>
       </c>
       <c r="AK11">
-        <v>466076000</v>
+        <v>532600000</v>
       </c>
       <c r="AL11" s="3" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="AN11">
-        <v>470103825.136612</v>
+        <v>525842409.6385542</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -2293,121 +2221,121 @@
         <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>38352</v>
+        <v>41274</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="I12" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J12">
-        <v>2302341000</v>
+        <v>11055070000</v>
       </c>
       <c r="K12">
-        <v>457169000</v>
+        <v>4267700000</v>
       </c>
       <c r="L12">
-        <v>1845172000</v>
+        <v>6787370000</v>
       </c>
       <c r="M12">
-        <v>0.8014329762619873</v>
+        <v>0.6139599296974149</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>331545000</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>3035494000</v>
       </c>
       <c r="Q12">
-        <v>115013000</v>
+        <v>3367039000</v>
       </c>
       <c r="R12">
-        <v>750964000</v>
+        <v>1256203000</v>
       </c>
       <c r="S12">
-        <v>865977000</v>
+        <v>4623242000</v>
       </c>
       <c r="T12">
-        <v>1323146000</v>
+        <v>8890942000</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>213552000</v>
       </c>
       <c r="W12">
-        <v>504403000</v>
+        <v>3169703000</v>
       </c>
       <c r="X12">
-        <v>1430415000</v>
+        <v>4663995000</v>
       </c>
       <c r="Y12">
-        <v>0.6212872028947928</v>
+        <v>0.4218874235984033</v>
       </c>
       <c r="Z12">
-        <v>979195000</v>
+        <v>1479797000</v>
       </c>
       <c r="AA12">
-        <v>0.4253040709434441</v>
+        <v>0.1338568638642722</v>
       </c>
       <c r="AB12">
-        <v>-53183000</v>
+        <v>-199057000</v>
       </c>
       <c r="AC12">
-        <v>926012000</v>
+        <v>1280740000</v>
       </c>
       <c r="AD12">
-        <v>0.4022045387716242</v>
+        <v>0.115850917271442</v>
       </c>
       <c r="AE12">
-        <v>301157000</v>
+        <v>710461000</v>
       </c>
       <c r="AF12">
-        <v>624855000</v>
+        <v>570279000</v>
       </c>
       <c r="AG12">
-        <v>0.2713998491101014</v>
+        <v>0.05158529073085923</v>
       </c>
       <c r="AH12">
-        <v>1.3125</v>
+        <v>1.065</v>
       </c>
       <c r="AI12">
-        <v>1.2875</v>
+        <v>1.055</v>
       </c>
       <c r="AJ12">
-        <v>467504000</v>
+        <v>535200000</v>
       </c>
       <c r="AK12">
-        <v>476752000</v>
+        <v>541600000</v>
       </c>
       <c r="AL12" s="3" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="AM12" s="3" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="AN12">
-        <v>476080000</v>
+        <v>535473239.4366198</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -2415,121 +2343,121 @@
         <v>51</v>
       </c>
       <c r="B13" s="2">
-        <v>38717</v>
+        <v>41639</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J13">
-        <v>3606990000</v>
+        <v>14399395000</v>
       </c>
       <c r="K13">
-        <v>571283000</v>
+        <v>4814825000</v>
       </c>
       <c r="L13">
-        <v>3035707000</v>
+        <v>9584570000</v>
       </c>
       <c r="M13">
-        <v>0.8416178032098786</v>
+        <v>0.665623104304035</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>348312000</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>3648840000</v>
       </c>
       <c r="Q13">
-        <v>125918000</v>
+        <v>3997152000</v>
       </c>
       <c r="R13">
-        <v>840042000</v>
+        <v>1656482000</v>
       </c>
       <c r="S13">
-        <v>965960000</v>
+        <v>5653634000</v>
       </c>
       <c r="T13">
-        <v>1537243000</v>
+        <v>10468459000</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>235460000</v>
       </c>
       <c r="W13">
-        <v>654258000</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>2619395000</v>
+        <v>3672346000</v>
       </c>
       <c r="Y13">
-        <v>0.7261996845014819</v>
+        <v>0.2550347427791237</v>
       </c>
       <c r="Z13">
-        <v>1991815000</v>
+        <v>3675211000</v>
       </c>
       <c r="AA13">
-        <v>0.5522097372047053</v>
+        <v>0.2552337094718216</v>
       </c>
       <c r="AB13">
-        <v>-26678000</v>
+        <v>-238325000</v>
       </c>
       <c r="AC13">
-        <v>1965137000</v>
+        <v>3436886000</v>
       </c>
       <c r="AD13">
-        <v>0.5448135425936862</v>
+        <v>0.2386826668759347</v>
       </c>
       <c r="AE13">
-        <v>705561000</v>
+        <v>1239777000</v>
       </c>
       <c r="AF13">
-        <v>1259576000</v>
+        <v>2197109000</v>
       </c>
       <c r="AG13">
-        <v>0.3492041840980984</v>
+        <v>0.1525834245119326</v>
       </c>
       <c r="AH13">
-        <v>2.62</v>
+        <v>4.065</v>
       </c>
       <c r="AI13">
-        <v>2.565</v>
+        <v>4.02</v>
       </c>
       <c r="AJ13">
-        <v>477594000</v>
+        <v>540340000</v>
       </c>
       <c r="AK13">
-        <v>487950000</v>
+        <v>546228000</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="AN13">
-        <v>480754198.4732824</v>
+        <v>540494218.9421893</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -2537,121 +2465,121 @@
         <v>52</v>
       </c>
       <c r="B14" s="2">
-        <v>39082</v>
+        <v>42004</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J14">
-        <v>3904415000</v>
+        <v>16639233000</v>
       </c>
       <c r="K14">
-        <v>717798000</v>
+        <v>5559254000</v>
       </c>
       <c r="L14">
-        <v>3186617000</v>
+        <v>11079979000</v>
       </c>
       <c r="M14">
-        <v>0.816157350076772</v>
+        <v>0.6658948161853374</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>402010000</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4126060000</v>
       </c>
       <c r="Q14">
-        <v>164981000</v>
+        <v>4528070000</v>
       </c>
       <c r="R14">
-        <v>1017952000</v>
+        <v>1908374000</v>
       </c>
       <c r="S14">
-        <v>1182933000</v>
+        <v>6436444000</v>
       </c>
       <c r="T14">
-        <v>1900731000</v>
+        <v>11995698000</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>201458000</v>
       </c>
       <c r="W14">
-        <v>817089000</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>2729730000</v>
+        <v>5196773000</v>
       </c>
       <c r="Y14">
-        <v>0.6991393076811763</v>
+        <v>0.3123204657330059</v>
       </c>
       <c r="Z14">
-        <v>1895426000</v>
+        <v>5241823000</v>
       </c>
       <c r="AA14">
-        <v>0.4854571043293298</v>
+        <v>0.3150279222605994</v>
       </c>
       <c r="AB14">
-        <v>17215000</v>
+        <v>-246508000</v>
       </c>
       <c r="AC14">
-        <v>1912641000</v>
+        <v>4995315000</v>
       </c>
       <c r="AD14">
-        <v>0.4898662155534184</v>
+        <v>0.3002130566955821</v>
       </c>
       <c r="AE14">
-        <v>612756000</v>
+        <v>2079828000</v>
       </c>
       <c r="AF14">
-        <v>1299885000</v>
+        <v>2915487000</v>
       </c>
       <c r="AG14">
-        <v>0.332926955766741</v>
+        <v>0.1752176317261739</v>
       </c>
       <c r="AH14">
-        <v>2.665</v>
+        <v>5.36</v>
       </c>
       <c r="AI14">
-        <v>2.62</v>
+        <v>5.32</v>
       </c>
       <c r="AJ14">
-        <v>483564000</v>
+        <v>543400000</v>
       </c>
       <c r="AK14">
-        <v>492200000</v>
+        <v>548500000</v>
       </c>
       <c r="AL14" s="3" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="AN14">
-        <v>487761726.0787992</v>
+        <v>543934141.7910447</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -2659,121 +2587,121 @@
         <v>53</v>
       </c>
       <c r="B15" s="2">
-        <v>39447</v>
+        <v>42369</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="I15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15">
+        <v>8656393000</v>
+      </c>
+      <c r="K15">
+        <v>4642082000</v>
+      </c>
+      <c r="L15">
+        <v>4014311000</v>
+      </c>
+      <c r="M15">
+        <v>0.4637394582246901</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>366594000</v>
+      </c>
+      <c r="P15">
+        <v>2385982000</v>
+      </c>
+      <c r="Q15">
+        <v>2752576000</v>
+      </c>
+      <c r="R15">
+        <v>1387394000</v>
+      </c>
+      <c r="S15">
+        <v>4139970000</v>
+      </c>
+      <c r="T15">
+        <v>8782052000</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>237393000</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>-6684163000</v>
+      </c>
+      <c r="Y15">
+        <v>-0.7721649190372941</v>
+      </c>
+      <c r="Z15">
+        <v>-6686079000</v>
+      </c>
+      <c r="AA15">
+        <v>-0.7723862583410896</v>
+      </c>
+      <c r="AB15">
+        <v>-235477000</v>
+      </c>
+      <c r="AC15">
+        <v>-6921556000</v>
+      </c>
+      <c r="AD15">
+        <v>-0.7995889280904875</v>
+      </c>
+      <c r="AE15">
+        <v>-2397041000</v>
+      </c>
+      <c r="AF15">
+        <v>-4524515000</v>
+      </c>
+      <c r="AG15">
+        <v>-0.5226790188476886</v>
+      </c>
+      <c r="AH15">
+        <v>-8.289999999999999</v>
+      </c>
+      <c r="AI15">
+        <v>-8.289999999999999</v>
+      </c>
+      <c r="AJ15">
+        <v>545700000</v>
+      </c>
+      <c r="AK15">
+        <v>545700000</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM15" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J15">
-        <v>4038496000</v>
-      </c>
-      <c r="K15">
-        <v>916050000</v>
-      </c>
-      <c r="L15">
-        <v>3122446000</v>
-      </c>
-      <c r="M15">
-        <v>0.7731705070402447</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>205210000</v>
-      </c>
-      <c r="R15">
-        <v>1121323000</v>
-      </c>
-      <c r="S15">
-        <v>1326533000</v>
-      </c>
-      <c r="T15">
-        <v>2242583000</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>1065545000</v>
-      </c>
-      <c r="X15">
-        <v>2696413000</v>
-      </c>
-      <c r="Y15">
-        <v>0.6676775215327686</v>
-      </c>
-      <c r="Z15">
-        <v>1648396000</v>
-      </c>
-      <c r="AA15">
-        <v>0.4081707645618567</v>
-      </c>
-      <c r="AB15">
-        <v>-17528000</v>
-      </c>
-      <c r="AC15">
-        <v>1630868000</v>
-      </c>
-      <c r="AD15">
-        <v>0.4038305349318162</v>
-      </c>
-      <c r="AE15">
-        <v>540950000</v>
-      </c>
-      <c r="AF15">
-        <v>1089918000</v>
-      </c>
-      <c r="AG15">
-        <v>0.2698821541484751</v>
-      </c>
-      <c r="AH15">
-        <v>2.225</v>
-      </c>
-      <c r="AI15">
-        <v>2.185</v>
-      </c>
-      <c r="AJ15">
-        <v>486938000</v>
-      </c>
-      <c r="AK15">
-        <v>495274000</v>
-      </c>
-      <c r="AL15" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM15" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="AN15">
-        <v>489850786.5168539</v>
+        <v>545779855.247286</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -2781,121 +2709,121 @@
         <v>54</v>
       </c>
       <c r="B16" s="2">
-        <v>39813</v>
+        <v>42735</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J16">
-        <v>6386519000</v>
+        <v>7463002000</v>
       </c>
       <c r="K16">
-        <v>1275720000</v>
+        <v>4603770000</v>
       </c>
       <c r="L16">
-        <v>5110799000</v>
+        <v>2859232000</v>
       </c>
       <c r="M16">
-        <v>0.8002479911200452</v>
+        <v>0.383120894246042</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>394815000</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2007635000</v>
       </c>
       <c r="Q16">
-        <v>243708000</v>
+        <v>2402450000</v>
       </c>
       <c r="R16">
-        <v>907047000</v>
+        <v>1168023000</v>
       </c>
       <c r="S16">
-        <v>1150755000</v>
+        <v>3570473000</v>
       </c>
       <c r="T16">
-        <v>2426475000</v>
+        <v>8174243000</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>281681000</v>
       </c>
       <c r="W16">
-        <v>1326875000</v>
+        <v>3553417000</v>
       </c>
       <c r="X16">
-        <v>5073414000</v>
+        <v>2277593000</v>
       </c>
       <c r="Y16">
-        <v>0.7943942545226906</v>
+        <v>0.305184562458914</v>
       </c>
       <c r="Z16">
-        <v>3767185000</v>
+        <v>-1225281000</v>
       </c>
       <c r="AA16">
-        <v>0.5898651518926038</v>
+        <v>-0.1641807144095633</v>
       </c>
       <c r="AB16">
-        <v>-20646000</v>
+        <v>-332224000</v>
       </c>
       <c r="AC16">
-        <v>3746539000</v>
+        <v>-1557505000</v>
       </c>
       <c r="AD16">
-        <v>0.5866324049141637</v>
+        <v>-0.2086968488015949</v>
       </c>
       <c r="AE16">
-        <v>1309620000</v>
+        <v>-460819000</v>
       </c>
       <c r="AF16">
-        <v>2436919000</v>
+        <v>-1096686000</v>
       </c>
       <c r="AG16">
-        <v>0.3815723401120391</v>
+        <v>-0.1469497127295424</v>
       </c>
       <c r="AH16">
-        <v>4.94</v>
+        <v>-1.98</v>
       </c>
       <c r="AI16">
-        <v>4.86</v>
+        <v>-1.98</v>
       </c>
       <c r="AJ16">
-        <v>493324000</v>
+        <v>553400000</v>
       </c>
       <c r="AK16">
-        <v>501084000</v>
+        <v>553400000</v>
       </c>
       <c r="AL16" s="3" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="AM16" s="3" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="AN16">
-        <v>493303441.2955465</v>
+        <v>553881818.1818181</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -2903,121 +2831,121 @@
         <v>55</v>
       </c>
       <c r="B17" s="2">
-        <v>40178</v>
+        <v>43100</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J17">
-        <v>4786959000</v>
+        <v>11205978000</v>
       </c>
       <c r="K17">
-        <v>1141086000</v>
+        <v>4603009000</v>
       </c>
       <c r="L17">
-        <v>3645873000</v>
+        <v>6602969000</v>
       </c>
       <c r="M17">
-        <v>0.7616261179592305</v>
+        <v>0.589236298696999</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>248274000</v>
+        <v>434467000</v>
       </c>
       <c r="P17">
-        <v>397375000</v>
+        <v>3330237000</v>
       </c>
       <c r="Q17">
-        <v>645649000</v>
+        <v>3764704000</v>
       </c>
       <c r="R17">
-        <v>1723551000</v>
+        <v>1353355000</v>
       </c>
       <c r="S17">
-        <v>2369200000</v>
+        <v>5118059000</v>
       </c>
       <c r="T17">
-        <v>3510286000</v>
+        <v>9721068000</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17">
-        <v>100901000</v>
+        <v>274372000</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>3409387000</v>
       </c>
       <c r="X17">
-        <v>972912000</v>
+        <v>4344941000</v>
       </c>
       <c r="Y17">
-        <v>0.2032421836075889</v>
+        <v>0.3877342075809894</v>
       </c>
       <c r="Z17">
-        <v>970841000</v>
+        <v>926402000</v>
       </c>
       <c r="AA17">
-        <v>0.2028095498624492</v>
+        <v>0.08267033899227716</v>
       </c>
       <c r="AB17">
-        <v>-98830000</v>
+        <v>-265220000</v>
       </c>
       <c r="AC17">
-        <v>872011000</v>
+        <v>661182000</v>
       </c>
       <c r="AD17">
-        <v>0.1821638748107097</v>
+        <v>0.05900261449736918</v>
       </c>
       <c r="AE17">
-        <v>325384000</v>
+        <v>-1921397000</v>
       </c>
       <c r="AF17">
-        <v>546627000</v>
+        <v>2582579000</v>
       </c>
       <c r="AG17">
-        <v>0.11419086731263</v>
+        <v>0.2304644003406039</v>
       </c>
       <c r="AH17">
-        <v>1.1</v>
+        <v>4.49</v>
       </c>
       <c r="AI17">
-        <v>1.085</v>
+        <v>4.46</v>
       </c>
       <c r="AJ17">
-        <v>498000000</v>
+        <v>574600000</v>
       </c>
       <c r="AK17">
-        <v>503800000</v>
+        <v>578700000</v>
       </c>
       <c r="AL17" s="3" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="AN17">
-        <v>496933636.3636363</v>
+        <v>575184632.5167037</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -3025,121 +2953,121 @@
         <v>56</v>
       </c>
       <c r="B18" s="2">
-        <v>40543</v>
+        <v>43465</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J18">
-        <v>6099896000</v>
+        <v>17176842000</v>
       </c>
       <c r="K18">
-        <v>1410244000</v>
+        <v>5155059000</v>
       </c>
       <c r="L18">
-        <v>4689652000</v>
+        <v>12021783000</v>
       </c>
       <c r="M18">
-        <v>0.7688085173911162</v>
+        <v>0.6998831915668783</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>280474000</v>
+        <v>426969000</v>
       </c>
       <c r="P18">
-        <v>884212000</v>
+        <v>5203243000</v>
       </c>
       <c r="Q18">
-        <v>1164686000</v>
+        <v>5630212000</v>
       </c>
       <c r="R18">
-        <v>2259000000</v>
+        <v>1584126000</v>
       </c>
       <c r="S18">
-        <v>3423686000</v>
+        <v>7214338000</v>
       </c>
       <c r="T18">
-        <v>4833930000</v>
+        <v>12369397000</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18">
-        <v>129586000</v>
+        <v>245052000</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>537562000</v>
+        <v>4486050000</v>
       </c>
       <c r="Y18">
-        <v>0.08812642051602192</v>
+        <v>0.2611684965140856</v>
       </c>
       <c r="Z18">
-        <v>523319000</v>
+        <v>4469346000</v>
       </c>
       <c r="AA18">
-        <v>0.08579146267411772</v>
+        <v>0.2601960243914452</v>
       </c>
       <c r="AB18">
-        <v>-115343000</v>
+        <v>-228348000</v>
       </c>
       <c r="AC18">
-        <v>407976000</v>
+        <v>4240998000</v>
       </c>
       <c r="AD18">
-        <v>0.06688245176639077</v>
+        <v>0.2469020789735389</v>
       </c>
       <c r="AE18">
-        <v>247322000</v>
+        <v>821958000</v>
       </c>
       <c r="AF18">
-        <v>160654000</v>
+        <v>3419040000</v>
       </c>
       <c r="AG18">
-        <v>0.02633717033864184</v>
+        <v>0.1990493945278183</v>
       </c>
       <c r="AH18">
-        <v>0.32</v>
+        <v>5.93</v>
       </c>
       <c r="AI18">
-        <v>0.315</v>
+        <v>5.89</v>
       </c>
       <c r="AJ18">
-        <v>501800000</v>
+        <v>576600000</v>
       </c>
       <c r="AK18">
-        <v>509000000</v>
+        <v>580400000</v>
       </c>
       <c r="AL18" s="3" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AM18" s="3" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="AN18">
-        <v>502043750</v>
+        <v>576566610.455312</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -3147,121 +3075,121 @@
         <v>57</v>
       </c>
       <c r="B19" s="2">
-        <v>40907</v>
+        <v>43830</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J19">
-        <v>10126115000</v>
+        <v>16941727000</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5595799000</v>
       </c>
       <c r="L19">
-        <v>10126115000</v>
+        <v>11345928000</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0.6697031536395316</v>
       </c>
       <c r="N19">
-        <v>171658000</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>-1810981000</v>
+        <v>489397000</v>
       </c>
       <c r="P19">
-        <v>2115792000</v>
+        <v>5351524000</v>
       </c>
       <c r="Q19">
-        <v>304811000</v>
+        <v>5840921000</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1591988000</v>
       </c>
       <c r="S19">
-        <v>476469000</v>
+        <v>7432909000</v>
       </c>
       <c r="T19">
-        <v>8012806000</v>
+        <v>13028708000</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
       <c r="V19">
-        <v>210363000</v>
+        <v>185129000</v>
       </c>
       <c r="W19">
-        <v>2516381000</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>4636543000</v>
+        <v>3730396000</v>
       </c>
       <c r="Y19">
-        <v>0.4578797495386928</v>
+        <v>0.2201898307061612</v>
       </c>
       <c r="Z19">
-        <v>2113309000</v>
+        <v>3699011000</v>
       </c>
       <c r="AA19">
-        <v>0.2086988938995854</v>
+        <v>0.2183373041012879</v>
       </c>
       <c r="AB19">
-        <v>42838000</v>
+        <v>-153744000</v>
       </c>
       <c r="AC19">
-        <v>2156147000</v>
+        <v>3545267000</v>
       </c>
       <c r="AD19">
-        <v>0.2129293416083068</v>
+        <v>0.2092624323364436</v>
       </c>
       <c r="AE19">
-        <v>818676000</v>
+        <v>810357000</v>
       </c>
       <c r="AF19">
-        <v>1091123000</v>
+        <v>2734910000</v>
       </c>
       <c r="AG19">
-        <v>0.1077533683944929</v>
+        <v>0.1614304137942962</v>
       </c>
       <c r="AH19">
-        <v>2.075</v>
+        <v>4.73</v>
       </c>
       <c r="AI19">
-        <v>2.05</v>
+        <v>4.71</v>
       </c>
       <c r="AJ19">
-        <v>525400000</v>
+        <v>577700000</v>
       </c>
       <c r="AK19">
-        <v>532600000</v>
+        <v>580800000</v>
       </c>
       <c r="AL19" s="3" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="AM19" s="3" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="AN19">
-        <v>525842409.6385542</v>
+        <v>578205073.9957716</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -3269,118 +3197,121 @@
         <v>58</v>
       </c>
       <c r="B20" s="2">
-        <v>41274</v>
+        <v>44196</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J20">
-        <v>11055070000</v>
+        <v>9873240000</v>
       </c>
       <c r="K20">
-        <v>4267700000</v>
+        <v>4922938000</v>
       </c>
       <c r="L20">
-        <v>6787370000</v>
+        <v>4950302000</v>
       </c>
       <c r="M20">
-        <v>0.6139599296974149</v>
+        <v>0.5013857659694285</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>331545000</v>
+        <v>483823000</v>
       </c>
       <c r="P20">
-        <v>3035494000</v>
+        <v>2697729000</v>
       </c>
       <c r="Q20">
-        <v>3367039000</v>
+        <v>3181552000</v>
       </c>
       <c r="R20">
-        <v>1256203000</v>
+        <v>1310840000</v>
       </c>
       <c r="S20">
-        <v>4623242000</v>
+        <v>4492392000</v>
       </c>
       <c r="T20">
-        <v>8890942000</v>
+        <v>9415330000</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>213552000</v>
+        <v>205266000</v>
       </c>
       <c r="W20">
-        <v>3169703000</v>
+        <v>-40673000000</v>
       </c>
       <c r="X20">
-        <v>4663995000</v>
+        <v>-41206788000</v>
       </c>
       <c r="Y20">
-        <v>0.4218874235984033</v>
+        <v>-4.173583139881133</v>
       </c>
       <c r="Z20">
-        <v>1479797000</v>
+        <v>-544016000</v>
       </c>
       <c r="AA20">
-        <v>0.1338568638642722</v>
+        <v>-0.05510004821112421</v>
       </c>
       <c r="AB20">
-        <v>-199057000</v>
+        <v>-195038000</v>
       </c>
       <c r="AC20">
-        <v>1280740000</v>
+        <v>-739054000</v>
       </c>
       <c r="AD20">
-        <v>0.115850917271442</v>
+        <v>-0.07485425250475021</v>
       </c>
       <c r="AE20">
-        <v>710461000</v>
+        <v>-134482000</v>
       </c>
       <c r="AF20">
-        <v>570279000</v>
+        <v>-604572000</v>
       </c>
       <c r="AG20">
-        <v>0.05158529073085923</v>
+        <v>-0.06123339450879347</v>
       </c>
       <c r="AH20">
-        <v>1.065</v>
+        <v>-1.04</v>
       </c>
       <c r="AI20">
-        <v>1.055</v>
+        <v>-1.04</v>
       </c>
       <c r="AJ20">
-        <v>535200000</v>
+        <v>578949000</v>
       </c>
       <c r="AK20">
-        <v>541600000</v>
+        <v>578949000</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="AN20">
-        <v>535473239.4366198</v>
+        <v>581319230.7692307</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -3388,1134 +3319,163 @@
         <v>59</v>
       </c>
       <c r="B21" s="2">
-        <v>41639</v>
+        <v>44561</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="J21">
-        <v>14399395000</v>
+        <v>19669000000</v>
       </c>
       <c r="K21">
-        <v>4814825000</v>
+        <v>5345000000</v>
       </c>
       <c r="L21">
-        <v>9584570000</v>
+        <v>14324000000</v>
       </c>
       <c r="M21">
-        <v>0.665623104304035</v>
+        <v>0.7282525802023488</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>348312000</v>
+        <v>511000000</v>
       </c>
       <c r="P21">
-        <v>3648840000</v>
+        <v>4173000000</v>
       </c>
       <c r="Q21">
-        <v>3997152000</v>
+        <v>4684000000</v>
       </c>
       <c r="R21">
-        <v>1656482000</v>
+        <v>2027000000</v>
       </c>
       <c r="S21">
-        <v>5653634000</v>
+        <v>6711000000</v>
       </c>
       <c r="T21">
-        <v>10468459000</v>
+        <v>12056000000</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>235460000</v>
+        <v>178000000</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>3651000000</v>
       </c>
       <c r="X21">
-        <v>3672346000</v>
+        <v>9762000000</v>
       </c>
       <c r="Y21">
-        <v>0.2550347427791237</v>
+        <v>0.4963139966444659</v>
       </c>
       <c r="Z21">
-        <v>3675211000</v>
+        <v>6102000000</v>
       </c>
       <c r="AA21">
-        <v>0.2552337094718216</v>
+        <v>0.3102343789719864</v>
       </c>
       <c r="AB21">
-        <v>-238325000</v>
+        <v>-169000000</v>
       </c>
       <c r="AC21">
-        <v>3436886000</v>
+        <v>5933000000</v>
       </c>
       <c r="AD21">
-        <v>0.2386826668759347</v>
+        <v>0.3016421780466724</v>
       </c>
       <c r="AE21">
-        <v>1239777000</v>
+        <v>1269000000</v>
       </c>
       <c r="AF21">
-        <v>2197109000</v>
+        <v>4664000000</v>
       </c>
       <c r="AG21">
-        <v>0.1525834245119326</v>
+        <v>0.2371244089684275</v>
       </c>
       <c r="AH21">
-        <v>4.065</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="AI21">
-        <v>4.02</v>
+        <v>7.99</v>
       </c>
       <c r="AJ21">
-        <v>540340000</v>
+        <v>581000000</v>
       </c>
       <c r="AK21">
-        <v>546228000</v>
+        <v>584000000</v>
       </c>
       <c r="AL21" s="3" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="AN21">
-        <v>540494218.9421893</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="2">
-        <v>42004</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I22" t="s">
-        <v>155</v>
-      </c>
-      <c r="J22">
-        <v>16639233000</v>
-      </c>
-      <c r="K22">
-        <v>5559254000</v>
-      </c>
-      <c r="L22">
-        <v>11079979000</v>
-      </c>
-      <c r="M22">
-        <v>0.6658948161853374</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>402010000</v>
-      </c>
-      <c r="P22">
-        <v>4126060000</v>
-      </c>
-      <c r="Q22">
-        <v>4528070000</v>
-      </c>
-      <c r="R22">
-        <v>1908374000</v>
-      </c>
-      <c r="S22">
-        <v>6436444000</v>
-      </c>
-      <c r="T22">
-        <v>11995698000</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>201458000</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>5196773000</v>
-      </c>
-      <c r="Y22">
-        <v>0.3123204657330059</v>
-      </c>
-      <c r="Z22">
-        <v>5241823000</v>
-      </c>
-      <c r="AA22">
-        <v>0.3150279222605994</v>
-      </c>
-      <c r="AB22">
-        <v>-246508000</v>
-      </c>
-      <c r="AC22">
-        <v>4995315000</v>
-      </c>
-      <c r="AD22">
-        <v>0.3002130566955821</v>
-      </c>
-      <c r="AE22">
-        <v>2079828000</v>
-      </c>
-      <c r="AF22">
-        <v>2915487000</v>
-      </c>
-      <c r="AG22">
-        <v>0.1752176317261739</v>
-      </c>
-      <c r="AH22">
-        <v>5.36</v>
-      </c>
-      <c r="AI22">
-        <v>5.32</v>
-      </c>
-      <c r="AJ22">
-        <v>543400000</v>
-      </c>
-      <c r="AK22">
-        <v>548500000</v>
-      </c>
-      <c r="AL22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM22" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN22">
-        <v>543934141.7910447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40">
-      <c r="A23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="2">
-        <v>42369</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" t="s">
-        <v>148</v>
-      </c>
-      <c r="I23" t="s">
-        <v>155</v>
-      </c>
-      <c r="J23">
-        <v>8656393000</v>
-      </c>
-      <c r="K23">
-        <v>4642082000</v>
-      </c>
-      <c r="L23">
-        <v>4014311000</v>
-      </c>
-      <c r="M23">
-        <v>0.4637394582246901</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>366594000</v>
-      </c>
-      <c r="P23">
-        <v>2385982000</v>
-      </c>
-      <c r="Q23">
-        <v>2752576000</v>
-      </c>
-      <c r="R23">
-        <v>1387394000</v>
-      </c>
-      <c r="S23">
-        <v>4139970000</v>
-      </c>
-      <c r="T23">
-        <v>8782052000</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>237393000</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>-6684163000</v>
-      </c>
-      <c r="Y23">
-        <v>-0.7721649190372941</v>
-      </c>
-      <c r="Z23">
-        <v>-6686079000</v>
-      </c>
-      <c r="AA23">
-        <v>-0.7723862583410896</v>
-      </c>
-      <c r="AB23">
-        <v>-235477000</v>
-      </c>
-      <c r="AC23">
-        <v>-6921556000</v>
-      </c>
-      <c r="AD23">
-        <v>-0.7995889280904875</v>
-      </c>
-      <c r="AE23">
-        <v>-2397041000</v>
-      </c>
-      <c r="AF23">
-        <v>-4524515000</v>
-      </c>
-      <c r="AG23">
-        <v>-0.5226790188476886</v>
-      </c>
-      <c r="AH23">
-        <v>-8.289999999999999</v>
-      </c>
-      <c r="AI23">
-        <v>-8.289999999999999</v>
-      </c>
-      <c r="AJ23">
-        <v>545700000</v>
-      </c>
-      <c r="AK23">
-        <v>545700000</v>
-      </c>
-      <c r="AL23" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM23" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AN23">
-        <v>545779855.247286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40">
-      <c r="A24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="2">
-        <v>42735</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" t="s">
-        <v>149</v>
-      </c>
-      <c r="I24" t="s">
-        <v>155</v>
-      </c>
-      <c r="J24">
-        <v>7463002000</v>
-      </c>
-      <c r="K24">
-        <v>4603770000</v>
-      </c>
-      <c r="L24">
-        <v>2859232000</v>
-      </c>
-      <c r="M24">
-        <v>0.383120894246042</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>394815000</v>
-      </c>
-      <c r="P24">
-        <v>2007635000</v>
-      </c>
-      <c r="Q24">
-        <v>2402450000</v>
-      </c>
-      <c r="R24">
-        <v>1168023000</v>
-      </c>
-      <c r="S24">
-        <v>3570473000</v>
-      </c>
-      <c r="T24">
-        <v>8174243000</v>
-      </c>
-      <c r="V24">
-        <v>281681000</v>
-      </c>
-      <c r="W24">
-        <v>3553417000</v>
-      </c>
-      <c r="X24">
-        <v>2277593000</v>
-      </c>
-      <c r="Y24">
-        <v>0.305184562458914</v>
-      </c>
-      <c r="Z24">
-        <v>-1225281000</v>
-      </c>
-      <c r="AA24">
-        <v>-0.1641807144095633</v>
-      </c>
-      <c r="AB24">
-        <v>-332224000</v>
-      </c>
-      <c r="AC24">
-        <v>-1557505000</v>
-      </c>
-      <c r="AD24">
-        <v>-0.2086968488015949</v>
-      </c>
-      <c r="AE24">
-        <v>-460819000</v>
-      </c>
-      <c r="AF24">
-        <v>-1096686000</v>
-      </c>
-      <c r="AG24">
-        <v>-0.1469497127295424</v>
-      </c>
-      <c r="AH24">
-        <v>-1.98</v>
-      </c>
-      <c r="AI24">
-        <v>-1.98</v>
-      </c>
-      <c r="AJ24">
-        <v>553400000</v>
-      </c>
-      <c r="AK24">
-        <v>553400000</v>
-      </c>
-      <c r="AL24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM24" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN24">
-        <v>553881818.1818181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40">
-      <c r="A25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="2">
-        <v>43100</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" t="s">
-        <v>122</v>
-      </c>
-      <c r="H25" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" t="s">
-        <v>155</v>
-      </c>
-      <c r="J25">
-        <v>11205978000</v>
-      </c>
-      <c r="K25">
-        <v>4603009000</v>
-      </c>
-      <c r="L25">
-        <v>6602969000</v>
-      </c>
-      <c r="M25">
-        <v>0.589236298696999</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>434467000</v>
-      </c>
-      <c r="P25">
-        <v>3330237000</v>
-      </c>
-      <c r="Q25">
-        <v>3764704000</v>
-      </c>
-      <c r="R25">
-        <v>1353355000</v>
-      </c>
-      <c r="S25">
-        <v>5118059000</v>
-      </c>
-      <c r="T25">
-        <v>9721068000</v>
-      </c>
-      <c r="V25">
-        <v>274372000</v>
-      </c>
-      <c r="W25">
-        <v>3409387000</v>
-      </c>
-      <c r="X25">
-        <v>4344941000</v>
-      </c>
-      <c r="Y25">
-        <v>0.3877342075809894</v>
-      </c>
-      <c r="Z25">
-        <v>926402000</v>
-      </c>
-      <c r="AA25">
-        <v>0.08267033899227716</v>
-      </c>
-      <c r="AB25">
-        <v>-265220000</v>
-      </c>
-      <c r="AC25">
-        <v>661182000</v>
-      </c>
-      <c r="AD25">
-        <v>0.05900261449736918</v>
-      </c>
-      <c r="AE25">
-        <v>-1921397000</v>
-      </c>
-      <c r="AF25">
-        <v>2582579000</v>
-      </c>
-      <c r="AG25">
-        <v>0.2304644003406039</v>
-      </c>
-      <c r="AH25">
-        <v>4.49</v>
-      </c>
-      <c r="AI25">
-        <v>4.46</v>
-      </c>
-      <c r="AJ25">
-        <v>574600000</v>
-      </c>
-      <c r="AK25">
-        <v>578700000</v>
-      </c>
-      <c r="AL25" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM25" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AN25">
-        <v>575184632.5167037</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40">
-      <c r="A26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="2">
-        <v>43465</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" t="s">
-        <v>151</v>
-      </c>
-      <c r="I26" t="s">
-        <v>155</v>
-      </c>
-      <c r="J26">
-        <v>17176842000</v>
-      </c>
-      <c r="K26">
-        <v>5155059000</v>
-      </c>
-      <c r="L26">
-        <v>12021783000</v>
-      </c>
-      <c r="M26">
-        <v>0.6998831915668783</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>426969000</v>
-      </c>
-      <c r="P26">
-        <v>5203243000</v>
-      </c>
-      <c r="Q26">
-        <v>5630212000</v>
-      </c>
-      <c r="R26">
-        <v>1584126000</v>
-      </c>
-      <c r="S26">
-        <v>7214338000</v>
-      </c>
-      <c r="T26">
-        <v>12369397000</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>245052000</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>4486050000</v>
-      </c>
-      <c r="Y26">
-        <v>0.2611684965140856</v>
-      </c>
-      <c r="Z26">
-        <v>4469346000</v>
-      </c>
-      <c r="AA26">
-        <v>0.2601960243914452</v>
-      </c>
-      <c r="AB26">
-        <v>-228348000</v>
-      </c>
-      <c r="AC26">
-        <v>4240998000</v>
-      </c>
-      <c r="AD26">
-        <v>0.2469020789735389</v>
-      </c>
-      <c r="AE26">
-        <v>821958000</v>
-      </c>
-      <c r="AF26">
-        <v>3419040000</v>
-      </c>
-      <c r="AG26">
-        <v>0.1990493945278183</v>
-      </c>
-      <c r="AH26">
-        <v>5.93</v>
-      </c>
-      <c r="AI26">
-        <v>5.89</v>
-      </c>
-      <c r="AJ26">
-        <v>576600000</v>
-      </c>
-      <c r="AK26">
-        <v>580400000</v>
-      </c>
-      <c r="AL26" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM26" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN26">
-        <v>576566610.455312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40">
-      <c r="A27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="2">
-        <v>43830</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" t="s">
-        <v>155</v>
-      </c>
-      <c r="J27">
-        <v>16941727000</v>
-      </c>
-      <c r="K27">
-        <v>5595799000</v>
-      </c>
-      <c r="L27">
-        <v>11345928000</v>
-      </c>
-      <c r="M27">
-        <v>0.6697031536395316</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>489397000</v>
-      </c>
-      <c r="P27">
-        <v>5351524000</v>
-      </c>
-      <c r="Q27">
-        <v>5840921000</v>
-      </c>
-      <c r="R27">
-        <v>1591988000</v>
-      </c>
-      <c r="S27">
-        <v>7432909000</v>
-      </c>
-      <c r="T27">
-        <v>13028708000</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>185129000</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>3730396000</v>
-      </c>
-      <c r="Y27">
-        <v>0.2201898307061612</v>
-      </c>
-      <c r="Z27">
-        <v>3699011000</v>
-      </c>
-      <c r="AA27">
-        <v>0.2183373041012879</v>
-      </c>
-      <c r="AB27">
-        <v>-153744000</v>
-      </c>
-      <c r="AC27">
-        <v>3545267000</v>
-      </c>
-      <c r="AD27">
-        <v>0.2092624323364436</v>
-      </c>
-      <c r="AE27">
-        <v>810357000</v>
-      </c>
-      <c r="AF27">
-        <v>2734910000</v>
-      </c>
-      <c r="AG27">
-        <v>0.1614304137942962</v>
-      </c>
-      <c r="AH27">
-        <v>4.73</v>
-      </c>
-      <c r="AI27">
-        <v>4.71</v>
-      </c>
-      <c r="AJ27">
-        <v>577700000</v>
-      </c>
-      <c r="AK27">
-        <v>580800000</v>
-      </c>
-      <c r="AL27" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AM27" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN27">
-        <v>578205073.9957716</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40">
-      <c r="A28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="2">
-        <v>44196</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I28" t="s">
-        <v>155</v>
-      </c>
-      <c r="J28">
-        <v>9873240000</v>
-      </c>
-      <c r="K28">
-        <v>4922938000</v>
-      </c>
-      <c r="L28">
-        <v>4950302000</v>
-      </c>
-      <c r="M28">
-        <v>0.5013857659694285</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>483823000</v>
-      </c>
-      <c r="P28">
-        <v>2697729000</v>
-      </c>
-      <c r="Q28">
-        <v>3181552000</v>
-      </c>
-      <c r="R28">
-        <v>1310840000</v>
-      </c>
-      <c r="S28">
-        <v>4492392000</v>
-      </c>
-      <c r="T28">
-        <v>9415330000</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>205266000</v>
-      </c>
-      <c r="W28">
-        <v>-40673000000</v>
-      </c>
-      <c r="X28">
-        <v>-41206788000</v>
-      </c>
-      <c r="Y28">
-        <v>-4.173583139881133</v>
-      </c>
-      <c r="Z28">
-        <v>-544016000</v>
-      </c>
-      <c r="AA28">
-        <v>-0.05510004821112421</v>
-      </c>
-      <c r="AB28">
-        <v>-195038000</v>
-      </c>
-      <c r="AC28">
-        <v>-739054000</v>
-      </c>
-      <c r="AD28">
-        <v>-0.07485425250475021</v>
-      </c>
-      <c r="AE28">
-        <v>-134482000</v>
-      </c>
-      <c r="AF28">
-        <v>-604572000</v>
-      </c>
-      <c r="AG28">
-        <v>-0.06123339450879347</v>
-      </c>
-      <c r="AH28">
-        <v>-1.04</v>
-      </c>
-      <c r="AI28">
-        <v>-1.04</v>
-      </c>
-      <c r="AJ28">
-        <v>578949000</v>
-      </c>
-      <c r="AK28">
-        <v>578949000</v>
-      </c>
-      <c r="AL28" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AM28" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN28">
-        <v>581319230.7692307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40">
-      <c r="A29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="2">
-        <v>44561</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" t="s">
-        <v>154</v>
-      </c>
-      <c r="I29" t="s">
-        <v>155</v>
-      </c>
-      <c r="J29">
-        <v>19669000000</v>
-      </c>
-      <c r="K29">
-        <v>5345000000</v>
-      </c>
-      <c r="L29">
-        <v>14324000000</v>
-      </c>
-      <c r="M29">
-        <v>0.7282525802023488</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>511000000</v>
-      </c>
-      <c r="P29">
-        <v>4173000000</v>
-      </c>
-      <c r="Q29">
-        <v>4684000000</v>
-      </c>
-      <c r="R29">
-        <v>2027000000</v>
-      </c>
-      <c r="S29">
-        <v>6711000000</v>
-      </c>
-      <c r="T29">
-        <v>12056000000</v>
-      </c>
-      <c r="V29">
-        <v>178000000</v>
-      </c>
-      <c r="W29">
-        <v>3651000000</v>
-      </c>
-      <c r="X29">
-        <v>9762000000</v>
-      </c>
-      <c r="Y29">
-        <v>0.4963139966444659</v>
-      </c>
-      <c r="Z29">
-        <v>6102000000</v>
-      </c>
-      <c r="AA29">
-        <v>0.3102343789719864</v>
-      </c>
-      <c r="AB29">
-        <v>-169000000</v>
-      </c>
-      <c r="AC29">
-        <v>5933000000</v>
-      </c>
-      <c r="AD29">
-        <v>0.3016421780466724</v>
-      </c>
-      <c r="AE29">
-        <v>1269000000</v>
-      </c>
-      <c r="AF29">
-        <v>4664000000</v>
-      </c>
-      <c r="AG29">
-        <v>0.2371244089684275</v>
-      </c>
-      <c r="AH29">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="AI29">
-        <v>7.99</v>
-      </c>
-      <c r="AJ29">
-        <v>581000000</v>
-      </c>
-      <c r="AK29">
-        <v>584000000</v>
-      </c>
-      <c r="AL29" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM29" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN29">
         <v>580821917.8082192</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AL7" r:id="rId1"/>
-    <hyperlink ref="AM7" r:id="rId2"/>
-    <hyperlink ref="AL8" r:id="rId3"/>
-    <hyperlink ref="AM8" r:id="rId4"/>
-    <hyperlink ref="AL11" r:id="rId5"/>
-    <hyperlink ref="AM11" r:id="rId6"/>
-    <hyperlink ref="AL12" r:id="rId7"/>
-    <hyperlink ref="AM12" r:id="rId8"/>
-    <hyperlink ref="AL13" r:id="rId9"/>
-    <hyperlink ref="AM13" r:id="rId10"/>
-    <hyperlink ref="AL14" r:id="rId11"/>
-    <hyperlink ref="AM14" r:id="rId12"/>
-    <hyperlink ref="AL15" r:id="rId13"/>
-    <hyperlink ref="AM15" r:id="rId14"/>
-    <hyperlink ref="AL16" r:id="rId15"/>
-    <hyperlink ref="AM16" r:id="rId16"/>
-    <hyperlink ref="AL17" r:id="rId17"/>
-    <hyperlink ref="AM17" r:id="rId18"/>
-    <hyperlink ref="AL18" r:id="rId19"/>
-    <hyperlink ref="AM18" r:id="rId20"/>
-    <hyperlink ref="AL19" r:id="rId21"/>
-    <hyperlink ref="AM19" r:id="rId22"/>
-    <hyperlink ref="AL20" r:id="rId23"/>
-    <hyperlink ref="AM20" r:id="rId24"/>
-    <hyperlink ref="AL21" r:id="rId25"/>
-    <hyperlink ref="AM21" r:id="rId26"/>
-    <hyperlink ref="AL22" r:id="rId27"/>
-    <hyperlink ref="AM22" r:id="rId28"/>
-    <hyperlink ref="AL23" r:id="rId29"/>
-    <hyperlink ref="AM23" r:id="rId30"/>
-    <hyperlink ref="AL24" r:id="rId31"/>
-    <hyperlink ref="AM24" r:id="rId32"/>
-    <hyperlink ref="AL25" r:id="rId33"/>
-    <hyperlink ref="AM25" r:id="rId34"/>
-    <hyperlink ref="AL26" r:id="rId35"/>
-    <hyperlink ref="AM26" r:id="rId36"/>
-    <hyperlink ref="AL27" r:id="rId37"/>
-    <hyperlink ref="AM27" r:id="rId38"/>
-    <hyperlink ref="AL28" r:id="rId39"/>
-    <hyperlink ref="AM28" r:id="rId40"/>
-    <hyperlink ref="AL29" r:id="rId41"/>
-    <hyperlink ref="AM29" r:id="rId42"/>
+    <hyperlink ref="AL3" r:id="rId1"/>
+    <hyperlink ref="AM3" r:id="rId2"/>
+    <hyperlink ref="AL4" r:id="rId3"/>
+    <hyperlink ref="AM4" r:id="rId4"/>
+    <hyperlink ref="AL5" r:id="rId5"/>
+    <hyperlink ref="AM5" r:id="rId6"/>
+    <hyperlink ref="AL6" r:id="rId7"/>
+    <hyperlink ref="AM6" r:id="rId8"/>
+    <hyperlink ref="AL7" r:id="rId9"/>
+    <hyperlink ref="AM7" r:id="rId10"/>
+    <hyperlink ref="AL8" r:id="rId11"/>
+    <hyperlink ref="AM8" r:id="rId12"/>
+    <hyperlink ref="AL9" r:id="rId13"/>
+    <hyperlink ref="AM9" r:id="rId14"/>
+    <hyperlink ref="AL10" r:id="rId15"/>
+    <hyperlink ref="AM10" r:id="rId16"/>
+    <hyperlink ref="AL11" r:id="rId17"/>
+    <hyperlink ref="AM11" r:id="rId18"/>
+    <hyperlink ref="AL12" r:id="rId19"/>
+    <hyperlink ref="AM12" r:id="rId20"/>
+    <hyperlink ref="AL13" r:id="rId21"/>
+    <hyperlink ref="AM13" r:id="rId22"/>
+    <hyperlink ref="AL14" r:id="rId23"/>
+    <hyperlink ref="AM14" r:id="rId24"/>
+    <hyperlink ref="AL15" r:id="rId25"/>
+    <hyperlink ref="AM15" r:id="rId26"/>
+    <hyperlink ref="AL16" r:id="rId27"/>
+    <hyperlink ref="AM16" r:id="rId28"/>
+    <hyperlink ref="AL17" r:id="rId29"/>
+    <hyperlink ref="AM17" r:id="rId30"/>
+    <hyperlink ref="AL18" r:id="rId31"/>
+    <hyperlink ref="AM18" r:id="rId32"/>
+    <hyperlink ref="AL19" r:id="rId33"/>
+    <hyperlink ref="AM19" r:id="rId34"/>
+    <hyperlink ref="AL20" r:id="rId35"/>
+    <hyperlink ref="AM20" r:id="rId36"/>
+    <hyperlink ref="AL21" r:id="rId37"/>
+    <hyperlink ref="AM21" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
